--- a/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,8; 19,04</t>
+          <t>7,28; 18,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,01; 29,37</t>
+          <t>17,83; 28,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 22,48</t>
+          <t>14,72; 22,76</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,42</t>
+          <t>13,38; 19,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,2; 20,11</t>
+          <t>15,32; 20,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,99; 18,73</t>
+          <t>15,05; 18,97</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,62</t>
+          <t>7,51; 11,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,2; 18,05</t>
+          <t>14,39; 18,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 14,56</t>
+          <t>11,47; 14,44</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,29</t>
+          <t>4,28; 8,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,72</t>
+          <t>4,92; 10,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,34</t>
+          <t>5,35; 8,36</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 13,81</t>
+          <t>9,74; 13,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,01; 17,86</t>
+          <t>14,05; 17,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,62; 15,37</t>
+          <t>12,61; 15,42</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,43; 11,64</t>
+          <t>9,45; 11,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,02; 15,67</t>
+          <t>13,05; 15,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,84; 13,46</t>
+          <t>11,77; 13,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,28; 18,44</t>
+          <t>7,8; 19,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,83; 28,74</t>
+          <t>18,01; 29,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,72; 22,76</t>
+          <t>14,29; 22,48</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 19,66</t>
+          <t>13,34; 19,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,32; 20,32</t>
+          <t>15,2; 20,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,05; 18,97</t>
+          <t>14,99; 18,73</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 11,9</t>
+          <t>7,46; 11,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,39; 18,16</t>
+          <t>14,2; 18,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,47; 14,44</t>
+          <t>11,55; 14,56</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,21</t>
+          <t>4,35; 8,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,06</t>
+          <t>4,56; 9,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,36</t>
+          <t>5,28; 8,34</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,74; 13,69</t>
+          <t>9,75; 13,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,05; 17,79</t>
+          <t>14,01; 17,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,61; 15,42</t>
+          <t>12,62; 15,37</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,45; 11,76</t>
+          <t>9,43; 11,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,05; 15,61</t>
+          <t>13,02; 15,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,77; 13,49</t>
+          <t>11,84; 13,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>16,56%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,8; 19,04</t>
+          <t>12,35; 17,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,01; 29,37</t>
+          <t>16,27; 20,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 22,48</t>
+          <t>15,09; 18,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>11,35%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,42</t>
+          <t>3,74; 10,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,2; 20,11</t>
+          <t>13,96; 17,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,99; 18,73</t>
+          <t>7,66; 13,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>6,1%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,62</t>
+          <t>4,09; 7,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,2; 18,05</t>
+          <t>2,99; 8,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 14,56</t>
+          <t>4,08; 7,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>12,99%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,29</t>
+          <t>9,22; 13,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,72</t>
+          <t>11,48; 16,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,34</t>
+          <t>11,39; 14,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>11,56%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 13,81</t>
+          <t>7,27; 10,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,01; 17,86</t>
+          <t>10,66; 14,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,62; 15,37</t>
+          <t>9,94; 12,62</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10,52%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>14,54%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>9,43; 11,64</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>13,02; 15,67</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>11,84; 13,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,35; 17,52</t>
+          <t>12,35; 17,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,27; 20,52</t>
+          <t>16,17; 20,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,09; 18,21</t>
+          <t>14,79; 18,27</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 10,42</t>
+          <t>3,98; 10,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,96; 17,71</t>
+          <t>14,13; 17,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,54</t>
+          <t>7,87; 13,28</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,95</t>
+          <t>4,28; 7,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,97</t>
+          <t>3,25; 8,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,62</t>
+          <t>3,84; 7,65</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,2</t>
+          <t>8,98; 12,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,48; 16,84</t>
+          <t>11,53; 16,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,39; 14,52</t>
+          <t>11,52; 14,62</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 10,65</t>
+          <t>7,44; 10,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,86</t>
+          <t>11,05; 14,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,94; 12,62</t>
+          <t>9,85; 12,48</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con bienestar emocional por debajo del percentil 15 (Bericat)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>92287</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>119989</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>212276</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>77152; 110324</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>106307; 134882</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>189629; 234206</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>91874</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>149533</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>241407</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>47226; 124003</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>133102; 168762</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>167501; 282571</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>39198</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59298</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>98496</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29582; 53671</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30056; 82643</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62064; 123497</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>100269</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>158662</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>258931</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>82155; 118175</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>124451; 180963</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>229774; 291510</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1334</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>323628</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>487482</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>811110</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>254253; 365385</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>397967; 539590</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>691136; 875819</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>